--- a/biology/Médecine/MASH_(série_télévisée)/MASH_(série_télévisée).xlsx
+++ b/biology/Médecine/MASH_(série_télévisée)/MASH_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>MASH_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">MASH (parfois emphatisé M*A*S*H) est une série télévisée américaine développée par Larry Gelbart. Elle fut adaptée du film MASH sorti en 1970, lui-même basé sur le livre Mash: A Novel About Three Army Doctors écrit par Richard Hooker. La série est un drame médical produit par la société 20th Century Fox Television et diffusée sur la chaîne CBS. Elle suit le quotidien d'une équipe de médecins et d'infirmières qui constituent la 4077e compagnie du Mobile Army Surgical Hospital, située à Uijeongbu en Corée du Sud, durant la guerre de Corée. Le générique d'ouverture de la série est une version instrumentale de la chanson « Suicide Is Painless », qui apparaît également dans le film de Robert Altman. La série fut créée après qu'une tentative d'adaptation de la suite du livre original, MASH Goes to Maine, ait échoué. Bien que connue de tous aux États-Unis, elle n'a pas eu le même succès ailleurs, notamment en Europe.
 En France, elle fut diffusée à partir du 7 mars 1976 sur Antenne 2, puis rediffusée dans La Une est à vous sur TF1, puis M6, France 3, La Cinquième, puis RTL TV, Canal Jimmy et Comédie. Elle reste inédite dans les autres pays francophones et sur La Cinquième qui diffuse pendant quelques semaines face à la série Papa Schultz sur M6.
-Le pilote de la série fut diffusée aux États-Unis le 17 septembre 1972. Le dernier épisode « Adieu tout le monde » (Goodbye, Farewell and Amen) fut diffusé le 28 février 1983. Il fut le programme de télévision le plus regardé de tous les temps aux États-Unis (dépassé depuis par le Super Bowl 2010), avec 106 millions de téléspectateurs[1] (60,2 % des ménages, 77 % des téléspectateurs).
+Le pilote de la série fut diffusée aux États-Unis le 17 septembre 1972. Le dernier épisode « Adieu tout le monde » (Goodbye, Farewell and Amen) fut diffusé le 28 février 1983. Il fut le programme de télévision le plus regardé de tous les temps aux États-Unis (dépassé depuis par le Super Bowl 2010), avec 106 millions de téléspectateurs (60,2 % des ménages, 77 % des téléspectateurs).
 En contraste avec ce record réalisé par le "series finale" (dernier épisode d'une série), la série faillit être annulée au cours de sa première saison. Cependant, la saison 2 fut diffusée à une meilleure case horaire (juste après All in the Family, l'une des sitcoms les plus populaires de l'époque) et la série devint l'un des dix programmes les plus regardés, restant dans la liste des vingt programmes les plus regardés jusqu'à sa 11e et dernière saison. Aux États-Unis, la série est toujours diffusée en syndication sur plusieurs réseaux locaux. Bien que le conflit qu'elle couvrait n’ait duré que 3 ans, la série dura 11 saisons et 251 épisodes.
 Beaucoup des épisodes des premières saisons sont basées sur des histoires vraies rapportées par de réels chirurgiens des unités MASH, interviewés par l'équipe de production. Comme le film, la série se voulait autant être une allégorie de la guerre du Viêt Nam, qui avait toujours lieu lorsque la série débuta, que de la guerre de Corée. Les producteurs de la série ont déclaré que la série parlait de guerre et de bureaucratie en général.
 En 1997, les épisodes « Adieu Henry » (Abynissia, Henry) et « L'Interview » (The Interview) ont été placés respectivement à la 20e et à la 80e place dans le classement des plus grands épisodes de séries télévisées par le magazine TV Guide. En 2002, MASH a été nommée par le même magazine la 25e plus grande série de l'histoire de la télévision américaine.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>MASH_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,43 +529,82 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine, MASH était diffusée chaque semaine sur le réseau CBS, la plupart des épisodes durant une demi-heure (les épisodes ayant une longueur de 24 minutes, auxquelles il faut ajouter les coupures publicitaires). La série est généralement considérée comme une sitcom, bien qu'elle soit parfois qualifiée de « comédie noire » ou de « dramedy » en raison du sujet dramatique qu'elle aborde souvent. Le terme de « dramedy », bien que créé en 1978, n'était pas populaire avant que MASH quitte les écrans.
 La série, une « série chorale », se concentrait sur le personnel d'un hôpital de campagne de l'armée américaine, en anglais Mobile Army Surgical Hospital, raccourci sous l'acronyme MASH (les astérisques ayant été rajoutées par l'auteur du livre original, Richard Hooker), durant la guerre de Corée (1950-1953). La « 4077e MASH » n'était qu'une des unités de chirurgie présentes en Corée. Quand la série se développa, elle prit un tournant plus moraliste, Richard Hooker faisant par exemple remarquer que le personnage de Benjamin Franklin « Œil de Lynx » Pierce est bien plus libéral dans la série que dans son livre (dans l'un des livres MASH, Hawkeye fait référence à l'action de « kicking the bejesus out of lefties just to stay in shape », ce qui peut se traduire grossièrement par « foutre les pétoches aux gauchistes juste pour garder la forme »). Bien que la série fut souvent considérée comme une comédie, beaucoup d'épisodes adoptèrent un ton plus sérieux. Diffusée à la télévision alors que la guerre du Viêt-Nam avait toujours lieu, la série fut forcée de la commenter sans pour autant la contester. C'est pour cette raison que la série, sous couvert de comédie, questionnait, attaquait et se moquait souvent du rôle des États-Unis dans la guerre froide. Le moteur des épisodes était à la fois les personnages et le récit. Concernant la télévision américaine, on distingue fréquemment deux types de séries : celles dont l'intrigue repose principalement sur les personnages ou « character-driven », et celles reposant principalement sur l'intrigue ou « plot-driven »). Plusieurs épisodes de la série sont narrés dans le cadre de lettres écrites à leurs proches par l'un des personnages principaux. Le ton de la série pouvait changer. Assez débridé dans un épisode, il pouvait être plus sobre dans le suivant. Une tension dramatique réelle existait souvent entre les civils mobilisés et donc forcés de quitter leur foyer pour soigner des blessés de guerre (Œil de Lynx, Trapper ou B.J. Hunnicutt par exemple) et le personnel de l'armée de métier (comme Margaret Houlihan ou le colonel Potter) qui représente les idées de patriotisme et de devoir envers son pays. D'autres personnages (comme le colonel Henry Blake, le major Charles Winchester ou le caporal Maxwell Klinger) aident à rendre compte des différents comportements des civils américains à l'égard de la vie dans l'armée. D'autres personnages secondaires (tel qu'Eldon Quick, Herb Voland, Mary Wickes, et Tim O'Connor) aident la série à questionner la place des États-Unis dans la Guerre froide, à la fois en tant que belligérant et en tant que conciliateur.
-Rires enregistrés
-Les créateurs de la série, Larry Gelbart et Gene Reynolds souhaitaient que MASH soit diffusée sans rires enregistrés (« Comme la vraie guerre de Corée », déclara sèchement Larry Gelbart), mais CBS rejeta leur idée. Durant la deuxième saison, un compromis fut trouvé selon lequel les producteurs pouvaient supprimer les rires s'ils le souhaitaient, mais seulement pour les scènes se déroulant en salle d'opération. En conséquence, peu de scènes se déroulant en salle d'opération contiennent des rires en fond sonore. Certains épisodes ne comptent pas de rires du tout (« Coup de feu », « Le Car », « Quo Vadis, capitaine Chandler ? », « L'Interview », « Cauchemars » et « Vue sur MASH »), comme ce fut le cas pour certaines rediffusions locales ou internationales de la série. Les cinq premières saisons contenaient des rires très présents, comme dans d'autres sitcoms de l'époque. À partir de la sixième saison, de nouveaux rires considérablement plus discrets furent utilisés. Au Royaume-Uni, où la série fut diffusée par la BBC (et par conséquent sans coupure publicitaire), les rires furent supprimés sur tous les épisodes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MASH_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rires enregistrés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les créateurs de la série, Larry Gelbart et Gene Reynolds souhaitaient que MASH soit diffusée sans rires enregistrés (« Comme la vraie guerre de Corée », déclara sèchement Larry Gelbart), mais CBS rejeta leur idée. Durant la deuxième saison, un compromis fut trouvé selon lequel les producteurs pouvaient supprimer les rires s'ils le souhaitaient, mais seulement pour les scènes se déroulant en salle d'opération. En conséquence, peu de scènes se déroulant en salle d'opération contiennent des rires en fond sonore. Certains épisodes ne comptent pas de rires du tout (« Coup de feu », « Le Car », « Quo Vadis, capitaine Chandler ? », « L'Interview », « Cauchemars » et « Vue sur MASH »), comme ce fut le cas pour certaines rediffusions locales ou internationales de la série. Les cinq premières saisons contenaient des rires très présents, comme dans d'autres sitcoms de l'époque. À partir de la sixième saison, de nouveaux rires considérablement plus discrets furent utilisés. Au Royaume-Uni, où la série fut diffusée par la BBC (et par conséquent sans coupure publicitaire), les rires furent supprimés sur tous les épisodes.
 Si diffuser une série comique sans rires enregistrés est aujourd'hui fréquent (notamment grâce à des séries comme Scrubs, Arrested Development ou The Office, qui ont popularisé ce procédé), ce n'était pas le cas du temps de MASH. Elle constitue l'une des premières séries à avoir utilisé ce procédé.
 Sur tous les DVDs édités, à la fois en zone 2 (c'est-à-dire en Europe) et en zone 1 (États-Unis et Canada), il est possible de choisir de regarder la série avec ou sans rires en fond sonore. Les rediffusions actuelles, à la fois aux États-Unis et au Royaume-Uni, conservent les rires enregistrés.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MASH_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alan Alda (VF : Philippe Ogouz (saisons 1 et 2) / Philippe Peythieu (saisons 3 à 11)) : Capitaine Benjamin Franklin « Œil de Lynx » Pierce (« Hawkeye » en VO)
 Wayne Rogers (saisons 1-3) (VF : Alain Dorval (saisons 1 et 2) / Emmanuel Jacomy (saison 3)) : Capitaine John « Trapper John » McIntyre
@@ -569,31 +620,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MASH_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Capitaine Benjamin Franklin « Œil de Lynx » Pierce et Capitaine John « Trapper John » McIntyre : Chirurgiens cyniques mais excellents, ils sont les personnages centraux de la série. Ils passent leur temps à draguer les filles et à embêter leur compagnon de tente, le major Burns. Dans leur tente, un alambic leur permet d'avoir toujours du gin à portée de main. Lorsqu'une fournée de blessés arrive par hélicoptère, ils n'hésitent pas à donner de leur personne jusqu'à l'épuisement. Cependant, même et surtout pendant les opérations chirurgicales les plus délicates, ils continuent de plaisanter, souvent aux dépens de Burns et/ou de Houlihan. Ils partagent le même humanisme et donnent le meilleur d'eux-mêmes pour venir au secours des blessés. Constatant ses ravages et ses horreurs, ils considèrent la guerre comme un crime, et la rejettent sans concession. Leur humour parfois noir, leurs pitreries, sont une réaction à la violence quotidienne. Leur rébellion et leurs farces traduisent leur mépris des militaristes xénophobes tel le Major Burns. Ils manient la dérision pour tenter de supporter l'enfer. Ces deux personnages sont censés partager la vedette mais « Œil de Lynx » crève l'écran. Le dernier épisode illustre sa fragilité. Pierce, au contraire de ses collègues chirurgiens, grossira certainement la cohorte des vétérans inadaptés, à jamais traumatisés par la guerre.
 Capitaine B.J. Hunnicut : Chirurgien arrivé au MASH 4077 en remplacement de McIntyre à partir de la saison 4, il tient le rôle de complice de Pierce. Originaire de Californie et formé à l'université de Stanford, il partage le rejet de la guerre et de ses horreurs. Il supporte de moins en moins son éloignement d'avec sa femme Peg et surtout de sa petite fille Erin qui résident à San Francisco. Il se détache de Pierce à la mesure grandissante de son obsession pour sa fille Erin qu'il ne voit pas grandir. Amateur de blagues potaches qui visent successivement la plupart de ses camarades, il partage avec Pierce un gout pour la boisson et notamment le gin de leur alambic. B.J. Hunnicut garde secret la signification de ses initiales, ce qui rend fou Pierce au cours d'un épisode. Il lui dira finalement que B.J. vient des prénoms de ses parents, Bee et Jay Hunnicut. Il laisse aussitôt entendre que cette explication est fausse.
@@ -608,39 +661,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>MASH_(série_télévisée)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,45 +682,77 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MASH_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">MASH connut un succès considérable aux États-Unis, qui sortait tout juste de la guerre du Viêt Nam, et reste un des plus grands succès de l'histoire de la télévision.
 Gary Burghoff est le seul acteur du film à avoir repris le rôle de « Radar ». Les autres protagonistes sont tenus par d'autres acteurs (Alan Alda remplace Donald Sutherland dans le rôle d'« Œil de Lynx »). En revanche, le personnage de « Duke » Forrest, jadis interprété par Tom Skerritt, ne réapparaît pas dans la série.
 Goodbye, Farewell and Amen (en version originale) est l'épisode final de la série. Il a été diffusé le 28 février 1983, durait 2 h 30 et a été vu par près de 106 millions de téléspectateurs (soit 77 % de parts de marché). Cette audience a été le record absolu d'audimat tous programmes confondus aux États-Unis pendant presque 27 ans.
-Ce n'est que le dimanche 7 février 2010 que le Super Bowl XLIV a réalisé une meilleure audience avec 106,5 millions de téléspectateurs[2] (notons cependant que, durant cette période, la population américaine a augmenté de 70 millions). Pour comparaison, le dernier épisode de la série culte Friends a obtenu une audience de 52,5 millions de téléspectateurs, soit 42 % de parts de marché.
+Ce n'est que le dimanche 7 février 2010 que le Super Bowl XLIV a réalisé une meilleure audience avec 106,5 millions de téléspectateurs (notons cependant que, durant cette période, la population américaine a augmenté de 70 millions). Pour comparaison, le dernier épisode de la série culte Friends a obtenu une audience de 52,5 millions de téléspectateurs, soit 42 % de parts de marché.
 L'audience de la série était donc exceptionnelle. Ceci s'explique par le fait que les chaînes câblées étaient peu ou pas développées à cette époque, ce qui limitait l'offre de programmes. Il y a donc peu de chance qu'une série réalise à l'heure actuelle un tel record.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MASH_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/MASH_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Emmy Awards 1974 : Meilleur acteur pour Alan Alda
 Emmy Awards 1974 : Meilleure série comique
